--- a/PCAWG7_indel_classification_2021_08_31.xlsx
+++ b/PCAWG7_indel_classification_2021_08_31.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github2\Liu2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c7212a1ac174da/文档/GitHub/Liu2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85828880-4CFB-43D7-94D7-5BD30FA8DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{85828880-4CFB-43D7-94D7-5BD30FA8DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E77B69-6132-4583-92A6-D963771C5F44}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indel classification" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="82">
   <si>
     <t>Del</t>
   </si>
@@ -63,7 +63,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -86,18 +86,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,7 +107,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,18 +130,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -151,7 +151,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,18 +174,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -195,7 +195,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,18 +218,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -239,7 +239,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,18 +262,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,7 +283,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,18 +306,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -350,18 +350,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -371,7 +371,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,18 +394,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,7 +415,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -438,18 +438,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -459,7 +459,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -481,7 +481,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,18 +513,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,17 +580,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -600,7 +600,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -623,18 +623,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -644,7 +644,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,18 +667,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +688,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -711,18 +711,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -732,7 +732,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,18 +755,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -776,7 +776,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +802,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +812,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -822,7 +822,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -845,18 +845,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -866,7 +866,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -876,7 +876,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -886,7 +886,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -909,18 +909,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,7 +930,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -940,7 +940,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -950,7 +950,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -973,18 +973,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -994,7 +994,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1004,7 +1004,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1014,7 +1014,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1037,18 +1037,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1068,7 +1068,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,7 +1078,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1101,18 +1101,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,7 +1122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1132,7 +1132,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1164,7 +1164,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1193,7 +1193,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1203,7 +1203,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1213,7 +1213,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,18 +1236,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1267,7 +1267,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1277,7 +1277,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1300,18 +1300,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1321,7 +1321,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1331,7 +1331,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1364,18 +1364,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1385,7 +1385,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1405,7 +1405,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1428,18 +1428,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1449,7 +1449,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1459,7 +1459,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1469,7 +1469,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1492,18 +1492,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1513,7 +1513,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1523,7 +1523,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1533,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1559,7 +1559,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1569,7 +1569,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,7 +1579,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,18 +1602,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1623,7 +1623,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1633,7 +1633,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1643,7 +1643,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1704,6 +1704,1182 @@
   </si>
   <si>
     <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TATC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TATC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AAGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TATC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TATC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AAGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TATC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TATC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AAGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AAGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AAGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AAGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TAGT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AAGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGCCTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TAGCCT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGCCTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TAGCCTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AAGCGGC </t>
+    </r>
+  </si>
+  <si>
+    <t>ICGC Pan Cancer Analysis Working Group on Mutational Signatures</t>
+  </si>
+  <si>
+    <t>Classification of small deletions and insertions for mutational signature analysis</t>
+  </si>
+  <si>
+    <t>Mutation class number</t>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <r>
+      <t>ACCCC|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC (insert 1 T with 1 neighboring T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCC|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC (insert 1 T with 2 neighboring Ts)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCC|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|CGCGGC (insert 1 T with no neighboring Ts)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCC|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|CGCGGC (delete 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> T from a stretch of 1 Ts)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCC|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GCGGC (delete 1 T from a stretch of 2 Ts)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>ACCAA|</t>
     </r>
     <r>
@@ -1718,63 +2894,16 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACAA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|AAGCGGC (delete a single 2-bp sequence with no microhomology)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCC|</t>
     </r>
     <r>
       <rPr>
@@ -1788,205 +2917,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">GCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1996,1175 +2938,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TATC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TATC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AAGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TATC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ATC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TATC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AAGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TATC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TATC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AAGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AAGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AAGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AAGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TAGT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AAGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGCCTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TAGCCT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGCCTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TAGCCTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">AAGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <t>ICGC Pan Cancer Analysis Working Group on Mutational Signatures</t>
-  </si>
-  <si>
-    <t>Classification of small deletions and insertions for mutational signature analysis</t>
-  </si>
-  <si>
-    <t>Mutation class number</t>
-  </si>
-  <si>
-    <t>6+</t>
-  </si>
-  <si>
-    <r>
-      <t>ACCCC|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC (insert 1 T with 1 neighboring T)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCC|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC (insert 1 T with 2 neighboring Ts)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCC|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|CGCGGC (insert 1 T with no neighboring Ts)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCC|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|CGCGGC (delete 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> T from a stretch of 1 Ts)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCC|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GCGGC (delete 1 T from a stretch of 2 Ts)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCAA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|AAGCGGC (delete a single 2-bp sequence with no microhomology)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCC|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3187,17 +2961,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3206,7 +2980,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3229,17 +3003,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3248,7 +3022,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3271,17 +3045,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3290,7 +3064,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3313,17 +3087,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3332,7 +3106,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3422,17 +3196,248 @@
       </rPr>
       <t xml:space="preserve">AGCGGC </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|AAGCGGC </t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ACCAA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGCGGC or ACAA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|AAGCGGC </t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ACAAC|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CT|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAGCGGC or ACAA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|AAGCGGC </t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3440,7 +3445,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3463,14 +3468,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3492,6 +3497,13 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3648,6 +3660,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3665,15 +3686,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3957,19 +3969,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.47265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.9140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.90234375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="68.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.6640625" style="1"/>
+    <col min="6" max="6" width="19.234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1"/>
+    <col min="8" max="8" width="41.046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1"/>
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="10.6640625" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -3977,44 +3991,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.3" thickBot="1">
+      <c r="A4" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="31.5" thickBot="1">
-      <c r="A6" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="30.3" thickBot="1">
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4042,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4076,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4209,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
@@ -4226,27 +4240,27 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="1:20" ht="16" thickBot="1">
+    <row r="19" spans="1:20" ht="15.3" thickBot="1">
       <c r="Q19" s="7"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:20" ht="16" thickBot="1">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:20" ht="15.3" thickBot="1">
+      <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="1:20" ht="31.5" thickBot="1">
+    <row r="21" spans="1:20" ht="30.3" thickBot="1">
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -4275,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T22" s="7"/>
     </row>
@@ -4311,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T24" s="7"/>
     </row>
@@ -4347,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T26" s="7"/>
     </row>
@@ -4474,16 +4488,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" thickBot="1"/>
-    <row r="35" spans="1:5" ht="16" thickBot="1">
-      <c r="B35" s="8" t="s">
+    <row r="34" spans="1:5" ht="15.3" thickBot="1"/>
+    <row r="35" spans="1:5" ht="15.3" thickBot="1">
+      <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" ht="31.5" thickBot="1">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" ht="30.3" thickBot="1">
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
@@ -4511,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4528,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4593,7 +4607,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>27</v>
@@ -4695,7 +4709,7 @@
         <v>28</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>34</v>
@@ -4797,7 +4811,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>43</v>
@@ -4851,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4868,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4885,7 +4899,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4899,22 +4913,22 @@
         <v>44</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16" thickBot="1"/>
-    <row r="62" spans="1:5" ht="16" thickBot="1">
-      <c r="B62" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.3" thickBot="1"/>
+    <row r="62" spans="1:5" ht="15.3" thickBot="1">
+      <c r="B62" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="1:5" ht="31.5" thickBot="1">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" ht="30.3" thickBot="1">
       <c r="B63" s="4" t="s">
         <v>3</v>
       </c>
@@ -5217,7 +5231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:8">
       <c r="A81" s="3">
         <v>66</v>
       </c>
@@ -5234,7 +5248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:8">
       <c r="A82" s="3">
         <v>67</v>
       </c>
@@ -5251,7 +5265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:8">
       <c r="A83" s="3">
         <v>68</v>
       </c>
@@ -5268,7 +5282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:8">
       <c r="A84" s="3">
         <v>69</v>
       </c>
@@ -5282,10 +5296,10 @@
         <v>2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="3">
         <v>70</v>
       </c>
@@ -5299,10 +5313,10 @@
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="3">
         <v>71</v>
       </c>
@@ -5316,10 +5330,10 @@
         <v>4</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="3">
         <v>72</v>
       </c>
@@ -5333,19 +5347,19 @@
         <v>36</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="16" thickBot="1"/>
-    <row r="89" spans="1:6" ht="16" thickBot="1">
-      <c r="B89" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.3" thickBot="1"/>
+    <row r="89" spans="1:8" ht="15.3" thickBot="1">
+      <c r="B89" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="31.5" thickBot="1">
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="1:8" ht="30.3" thickBot="1">
       <c r="B90" s="4" t="s">
         <v>3</v>
       </c>
@@ -5359,7 +5373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="16">
+    <row r="91" spans="1:8" ht="15.9">
       <c r="A91" s="3">
         <v>73</v>
       </c>
@@ -5373,13 +5387,16 @@
         <v>50</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="16">
+        <v>80</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.9">
       <c r="A92" s="3">
         <v>74</v>
       </c>
@@ -5393,13 +5410,13 @@
         <v>50</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F92" s="15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="16">
+      <c r="F92" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.9">
       <c r="A93" s="3">
         <v>75</v>
       </c>
@@ -5413,13 +5430,13 @@
         <v>20</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="3">
         <v>76</v>
       </c>
@@ -5433,10 +5450,10 @@
         <v>50</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="3">
         <v>77</v>
       </c>
@@ -5450,10 +5467,10 @@
         <v>20</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="3">
         <v>78</v>
       </c>
@@ -5467,7 +5484,7 @@
         <v>28</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5484,7 +5501,7 @@
         <v>50</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5501,7 +5518,7 @@
         <v>20</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5518,7 +5535,7 @@
         <v>28</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5535,7 +5552,7 @@
         <v>37</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5552,7 +5569,7 @@
         <v>44</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5566,6 +5583,7 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B20:E20"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PCAWG7_indel_classification_2021_08_31.xlsx
+++ b/PCAWG7_indel_classification_2021_08_31.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Indel classification" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3704,6 +3704,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3970,7 +3974,7 @@
   <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>

--- a/PCAWG7_indel_classification_2021_08_31.xlsx
+++ b/PCAWG7_indel_classification_2021_08_31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c7212a1ac174da/文档/GitHub/Liu2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\GitHub\Liu2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{85828880-4CFB-43D7-94D7-5BD30FA8DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E77B69-6132-4583-92A6-D963771C5F44}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25920272-B2C7-4B93-BA90-027767257B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indel classification" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="78">
   <si>
     <t>Del</t>
   </si>
@@ -63,7 +63,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -86,18 +86,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,7 +107,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,18 +130,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -151,7 +151,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,18 +174,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -195,7 +195,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,18 +218,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -239,7 +239,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,18 +262,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,7 +283,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,18 +306,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +327,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -350,18 +350,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -371,7 +371,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,18 +394,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,7 +415,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -438,18 +438,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -459,7 +459,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -481,7 +481,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,18 +513,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -534,7 +534,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -580,17 +580,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -600,7 +600,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -623,18 +623,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -644,7 +644,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,18 +667,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +688,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -711,18 +711,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -732,7 +732,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -755,18 +755,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -776,7 +776,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +802,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +812,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -822,7 +822,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -845,18 +845,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -866,7 +866,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -876,7 +876,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -886,7 +886,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -909,18 +909,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,7 +930,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -940,7 +940,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -950,7 +950,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -973,18 +973,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -994,7 +994,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1004,7 +1004,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1014,7 +1014,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1037,18 +1037,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1058,7 +1058,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1068,7 +1068,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,7 +1078,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1101,18 +1101,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1122,7 +1122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1132,7 +1132,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1142,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1164,7 +1164,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1193,7 +1193,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1203,7 +1203,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1213,7 +1213,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,18 +1236,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1257,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1267,7 +1267,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1277,7 +1277,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1300,18 +1300,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1321,7 +1321,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1331,7 +1331,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1341,7 +1341,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1364,18 +1364,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1385,7 +1385,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1395,7 +1395,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1405,7 +1405,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1428,18 +1428,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1449,7 +1449,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1459,7 +1459,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1469,7 +1469,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1492,18 +1492,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1513,7 +1513,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1523,7 +1523,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,7 +1533,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1559,7 +1559,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1569,7 +1569,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,7 +1579,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,18 +1602,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1623,7 +1623,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1633,7 +1633,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1643,7 +1643,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1718,18 +1718,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1739,7 +1739,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1749,7 +1749,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1760,7 +1760,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1770,7 +1770,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,17 +1788,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1808,7 +1808,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1831,18 +1831,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1852,7 +1852,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1862,7 +1862,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1872,7 +1872,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1883,7 +1883,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1893,7 +1893,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1911,17 +1911,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1944,18 +1944,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1965,7 +1965,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1975,7 +1975,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1986,7 +1986,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1996,7 +1996,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2014,17 +2014,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2047,18 +2047,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2068,7 +2068,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2078,7 +2078,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2088,7 +2088,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2099,7 +2099,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2109,7 +2109,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2127,17 +2127,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2160,18 +2160,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2181,7 +2181,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2191,7 +2191,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2201,7 +2201,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2212,7 +2212,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2222,7 +2222,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2240,17 +2240,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2273,18 +2273,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2294,7 +2294,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2304,7 +2304,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2314,7 +2314,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2325,7 +2325,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2335,7 +2335,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2353,17 +2353,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2386,18 +2386,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2407,7 +2407,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2417,7 +2417,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2428,7 +2428,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2438,7 +2438,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2456,17 +2456,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2489,18 +2489,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2510,7 +2510,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2520,7 +2520,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2531,7 +2531,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2541,7 +2541,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2559,17 +2559,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2592,18 +2592,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2613,7 +2613,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2623,7 +2623,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2634,7 +2634,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2644,7 +2644,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2662,17 +2662,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2707,18 +2707,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2728,7 +2728,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2751,18 +2751,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2772,7 +2772,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2795,7 +2795,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2818,7 +2818,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2827,7 +2827,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2850,18 +2850,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2871,7 +2871,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2894,7 +2894,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2917,18 +2917,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2938,7 +2938,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2961,17 +2961,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2980,7 +2980,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3003,17 +3003,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3022,7 +3022,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3045,17 +3045,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3064,7 +3064,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3087,17 +3087,17 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3106,7 +3106,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3118,15 +3118,34 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ACCAA  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
+      <t>ACCCA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>T</t>
     </r>
@@ -3134,32 +3153,83 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCAA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGCGGC or ACCC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TTC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">|AAGCGGC </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ACCAA|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t>TC</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>T</t>
     </r>
@@ -3167,85 +3237,18 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCAA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">T  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AGCGGC </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ACCCA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGCGGC or ACCC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AGCGGC or ACAA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3255,189 +3258,42 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TTC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">|AAGCGGC </t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ACCAA|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AGCGGC or ACAA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">|AAGCGGC </t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ACAAC|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>CT|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CAGCGGC or ACAA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">|AAGCGGC </t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3445,7 +3301,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3468,14 +3324,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3486,21 +3342,8 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3702,10 +3545,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3971,27 +3810,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T101"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.47265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90234375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1"/>
-    <col min="8" max="8" width="41.046875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="10.6640625" style="1"/>
-    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="68.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1"/>
+    <col min="8" max="8" width="41" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1"/>
+    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="10.625" style="1"/>
+    <col min="20" max="20" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4017,12 +3859,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.3" thickBot="1">
+    <row r="4" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" thickBot="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" thickBot="1">
       <c r="A5" s="14"/>
       <c r="B5" s="16" t="s">
         <v>17</v>
@@ -4031,7 +3873,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="30.3" thickBot="1">
+    <row r="6" spans="1:5" ht="31.9" thickBot="1">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -4251,11 +4093,11 @@
       </c>
       <c r="T18" s="7"/>
     </row>
-    <row r="19" spans="1:20" ht="15.3" thickBot="1">
+    <row r="19" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="Q19" s="7"/>
       <c r="T19" s="7"/>
     </row>
-    <row r="20" spans="1:20" ht="15.3" thickBot="1">
+    <row r="20" spans="1:20" ht="16.149999999999999" thickBot="1">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -4264,7 +4106,7 @@
       <c r="E20" s="13"/>
       <c r="T20" s="7"/>
     </row>
-    <row r="21" spans="1:20" ht="30.3" thickBot="1">
+    <row r="21" spans="1:20" ht="31.9" thickBot="1">
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -4492,8 +4334,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.3" thickBot="1"/>
-    <row r="35" spans="1:5" ht="15.3" thickBot="1">
+    <row r="34" spans="1:5" ht="16.149999999999999" thickBot="1"/>
+    <row r="35" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
@@ -4501,7 +4343,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="30.3" thickBot="1">
+    <row r="36" spans="1:5" ht="31.9" thickBot="1">
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
@@ -4923,8 +4765,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.3" thickBot="1"/>
-    <row r="62" spans="1:5" ht="15.3" thickBot="1">
+    <row r="61" spans="1:5" ht="16.149999999999999" thickBot="1"/>
+    <row r="62" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="B62" s="11" t="s">
         <v>47</v>
       </c>
@@ -4932,7 +4774,7 @@
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
     </row>
-    <row r="63" spans="1:5" ht="30.3" thickBot="1">
+    <row r="63" spans="1:5" ht="31.9" thickBot="1">
       <c r="B63" s="4" t="s">
         <v>3</v>
       </c>
@@ -5235,7 +5077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:5">
       <c r="A81" s="3">
         <v>66</v>
       </c>
@@ -5252,7 +5094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:5">
       <c r="A82" s="3">
         <v>67</v>
       </c>
@@ -5269,7 +5111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:5">
       <c r="A83" s="3">
         <v>68</v>
       </c>
@@ -5286,7 +5128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:5">
       <c r="A84" s="3">
         <v>69</v>
       </c>
@@ -5303,7 +5145,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:5">
       <c r="A85" s="3">
         <v>70</v>
       </c>
@@ -5320,7 +5162,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:5">
       <c r="A86" s="3">
         <v>71</v>
       </c>
@@ -5337,7 +5179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:5">
       <c r="A87" s="3">
         <v>72</v>
       </c>
@@ -5354,8 +5196,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.3" thickBot="1"/>
-    <row r="89" spans="1:8" ht="15.3" thickBot="1">
+    <row r="88" spans="1:5" ht="16.149999999999999" thickBot="1"/>
+    <row r="89" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="B89" s="11" t="s">
         <v>48</v>
       </c>
@@ -5363,7 +5205,7 @@
       <c r="D89" s="12"/>
       <c r="E89" s="13"/>
     </row>
-    <row r="90" spans="1:8" ht="30.3" thickBot="1">
+    <row r="90" spans="1:5" ht="31.9" thickBot="1">
       <c r="B90" s="4" t="s">
         <v>3</v>
       </c>
@@ -5377,7 +5219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.9">
+    <row r="91" spans="1:5">
       <c r="A91" s="3">
         <v>73</v>
       </c>
@@ -5391,16 +5233,10 @@
         <v>50</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="3">
         <v>74</v>
       </c>
@@ -5414,13 +5250,10 @@
         <v>50</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="3">
         <v>75</v>
       </c>
@@ -5436,11 +5269,8 @@
       <c r="E93" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F93" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="3">
         <v>76</v>
       </c>
@@ -5457,7 +5287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:5">
       <c r="A95" s="3">
         <v>77</v>
       </c>
@@ -5474,7 +5304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:5">
       <c r="A96" s="3">
         <v>78</v>
       </c>
@@ -5575,6 +5405,15 @@
       <c r="E101" s="1" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="E104" s="8"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="E106" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5587,8 +5426,9 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B20:E20"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>